--- a/Final Project Files/predictor_data.xlsx
+++ b/Final Project Files/predictor_data.xlsx
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -436,7 +436,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -454,7 +454,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -562,7 +562,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -703,7 +703,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -721,7 +721,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -757,7 +757,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -901,7 +901,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -955,7 +955,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1063,7 +1063,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1099,7 +1099,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1153,7 +1153,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1171,7 +1171,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1402,7 +1402,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1654,7 +1654,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1705,7 +1705,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1723,7 +1723,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1759,7 +1759,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1903,7 +1903,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1939,7 +1939,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1957,7 +1957,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2065,7 +2065,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2101,7 +2101,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2155,7 +2155,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2173,7 +2173,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2209,7 +2209,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2227,7 +2227,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2263,7 +2263,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2407,7 +2407,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2443,7 +2443,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2461,7 +2461,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2605,7 +2605,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2659,7 +2659,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2677,7 +2677,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2713,7 +2713,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2731,7 +2731,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2767,7 +2767,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2911,7 +2911,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2947,7 +2947,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2965,7 +2965,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3073,7 +3073,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3109,7 +3109,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3163,7 +3163,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3181,7 +3181,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3217,7 +3217,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3235,7 +3235,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3271,7 +3271,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3415,7 +3415,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3451,7 +3451,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3469,7 +3469,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3577,7 +3577,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3613,7 +3613,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3667,7 +3667,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3685,7 +3685,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3721,7 +3721,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3739,7 +3739,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3775,7 +3775,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3919,7 +3919,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3955,7 +3955,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3973,7 +3973,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4081,7 +4081,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4117,7 +4117,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4171,7 +4171,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4189,7 +4189,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4225,7 +4225,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4243,7 +4243,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4279,7 +4279,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4423,7 +4423,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4459,7 +4459,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4477,7 +4477,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4585,7 +4585,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -4621,7 +4621,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4675,7 +4675,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4693,7 +4693,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4729,7 +4729,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4747,7 +4747,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4783,7 +4783,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4927,7 +4927,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4963,7 +4963,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4981,7 +4981,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5089,7 +5089,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5125,7 +5125,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5179,7 +5179,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5197,7 +5197,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5233,7 +5233,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5251,7 +5251,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -5287,7 +5287,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5431,7 +5431,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5467,7 +5467,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -5485,7 +5485,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -5593,7 +5593,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -5629,7 +5629,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -5683,7 +5683,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -5701,7 +5701,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -5737,7 +5737,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -5755,7 +5755,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -5791,7 +5791,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5935,7 +5935,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5971,7 +5971,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5989,7 +5989,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6097,7 +6097,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -6133,7 +6133,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -6187,7 +6187,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -6205,7 +6205,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -6241,7 +6241,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6259,7 +6259,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -6295,7 +6295,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -6439,7 +6439,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -6475,7 +6475,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -6493,7 +6493,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6601,7 +6601,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -6637,7 +6637,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6691,7 +6691,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -6709,7 +6709,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6745,7 +6745,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -6763,7 +6763,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -6799,7 +6799,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -6943,7 +6943,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -6979,7 +6979,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -6997,7 +6997,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -7105,7 +7105,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -7141,7 +7141,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -7195,7 +7195,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -7213,7 +7213,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -7249,7 +7249,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -7267,7 +7267,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -7303,7 +7303,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -7447,7 +7447,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7483,7 +7483,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -7501,7 +7501,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -7609,7 +7609,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -7645,7 +7645,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -7699,7 +7699,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -7717,7 +7717,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -7753,7 +7753,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -7771,7 +7771,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -7807,7 +7807,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -7951,7 +7951,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -7987,7 +7987,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -8005,7 +8005,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -8113,7 +8113,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -8149,7 +8149,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -8203,7 +8203,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -8221,7 +8221,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -8257,7 +8257,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -8275,7 +8275,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -8311,7 +8311,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -8455,7 +8455,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -8491,7 +8491,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -8509,7 +8509,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -8617,7 +8617,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -8653,7 +8653,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -8707,7 +8707,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -8725,7 +8725,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -8761,7 +8761,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -8779,7 +8779,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -8815,7 +8815,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -8959,7 +8959,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -8995,7 +8995,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -9013,7 +9013,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -9121,7 +9121,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -9157,7 +9157,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -9211,7 +9211,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -9229,7 +9229,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -9265,7 +9265,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -9283,7 +9283,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -9319,7 +9319,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -9463,7 +9463,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t xml:space="preserve">Arunachal Pradesh </t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -9499,7 +9499,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t xml:space="preserve">Bihar </t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -9517,7 +9517,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t xml:space="preserve">Chattisgarh </t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -9625,7 +9625,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t xml:space="preserve">Jharkhand </t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -9661,7 +9661,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t xml:space="preserve">Kerala </t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -9715,7 +9715,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t xml:space="preserve">Manipur </t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -9733,7 +9733,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t xml:space="preserve">Meghalaya </t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -9769,7 +9769,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t xml:space="preserve">Nagaland </t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -9787,7 +9787,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t xml:space="preserve">Odisha </t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -9823,7 +9823,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t xml:space="preserve">Rajasthan </t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
